--- a/pratica_01/Custos.xlsx
+++ b/pratica_01/Custos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GIT\repo_01\pratica_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA8D67C-7D5D-474E-A857-840C62B32F3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163D7611-250A-46D1-8F81-5FE52D510C5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C3EEE84E-34AA-47F2-AA7D-4D93AD078303}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Lista de atividades</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Encher o pneu</t>
   </si>
   <si>
-    <t>Duração (Min)</t>
-  </si>
-  <si>
     <t>Duração média das atividades</t>
   </si>
   <si>
@@ -72,6 +69,12 @@
   </si>
   <si>
     <t>Valor medio das horas trabalhadas</t>
+  </si>
+  <si>
+    <t>Duração (horas)</t>
+  </si>
+  <si>
+    <t>Valor da hora trabalhada</t>
   </si>
 </sst>
 </file>
@@ -159,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -188,6 +191,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,7 +510,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,6 +518,7 @@
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -520,10 +526,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -531,10 +540,14 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C2" s="9">
-        <v>100</v>
+        <f>B2*D2</f>
+        <v>150</v>
+      </c>
+      <c r="D2" s="12">
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -542,10 +555,14 @@
         <v>3</v>
       </c>
       <c r="B3" s="3">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C3" s="9">
-        <v>20000</v>
+        <f t="shared" ref="C3:C6" si="0">B3*D3</f>
+        <v>2400</v>
+      </c>
+      <c r="D3" s="12">
+        <v>800</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -553,10 +570,14 @@
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C4" s="9">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="D4" s="12">
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -564,10 +585,14 @@
         <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C5" s="9">
-        <v>7000</v>
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="D5" s="12">
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -575,10 +600,14 @@
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C6" s="9">
-        <v>2000</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="D6" s="12">
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -631,20 +660,20 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <f>SUM(Pacotes_trabalho!B2:B6)</f>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3">
         <f>AVERAGE(Pacotes_trabalho!B2:B6)</f>
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -660,7 +689,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,20 +700,20 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <f>SUM(Pacotes_trabalho!C2:C6)</f>
-        <v>29100</v>
+        <v>3900</v>
       </c>
       <c r="B2" s="9">
         <f>AVERAGE(Pacotes_trabalho!C2:C6)</f>
-        <v>5820</v>
+        <v>780</v>
       </c>
     </row>
   </sheetData>
